--- a/design1/i1s45814075.xlsx
+++ b/design1/i1s45814075.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MECH2100-A2\design1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Projects\MECH2100-A2\design1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ABF425-1581-40C6-87AD-9A650D53AE8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEAD1A6-24D7-43A0-9673-097D3D60E83E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9984" yWindow="1692" windowWidth="17136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -834,35 +834,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" customWidth="1"/>
-    <col min="2" max="2" width="4.68359375" customWidth="1"/>
-    <col min="3" max="3" width="16.15625" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" customWidth="1"/>
-    <col min="5" max="5" width="47.83984375" customWidth="1"/>
-    <col min="6" max="6" width="19.26171875" customWidth="1"/>
-    <col min="7" max="7" width="8.83984375" customWidth="1"/>
-    <col min="8" max="8" width="11.26171875" customWidth="1"/>
-    <col min="9" max="9" width="8.68359375" customWidth="1"/>
-    <col min="10" max="10" width="10.15625" customWidth="1"/>
-    <col min="11" max="11" width="8.68359375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.83984375" customWidth="1"/>
-    <col min="14" max="14" width="8.68359375" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
     <col min="15" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="9.15625" customWidth="1"/>
-    <col min="20" max="20" width="11.26171875" customWidth="1"/>
-    <col min="21" max="21" width="63.15625" customWidth="1"/>
-    <col min="22" max="22" width="9.15625" customWidth="1"/>
-    <col min="23" max="23" width="8.68359375" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" customWidth="1"/>
+    <col min="21" max="21" width="63.109375" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.8" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:23" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -890,7 +890,7 @@
         <v>45814075</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -947,7 +947,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
@@ -961,7 +961,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
@@ -990,7 +990,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="S17" s="2"/>
@@ -1059,7 +1059,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -1258,9 +1258,15 @@
       <c r="E25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="11">
+        <v>-58912.414131024467</v>
+      </c>
+      <c r="G25" s="11">
+        <v>-31006.533753170774</v>
+      </c>
+      <c r="H25" s="11">
+        <v>-91469.274571853763</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="2" t="s">
         <v>50</v>
@@ -1278,14 +1284,14 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1307,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1320,7 +1326,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1339,7 +1345,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1358,7 +1364,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1374,7 +1380,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
@@ -1393,7 +1399,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -1453,12 +1459,14 @@
       <c r="E46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="11">
+        <v>4500</v>
+      </c>
       <c r="H46" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -1471,12 +1479,14 @@
       <c r="E47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="11">
+        <v>1000</v>
+      </c>
       <c r="H47" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -1489,9 +1499,11 @@
       <c r="E48" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="11">
+        <v>744.55355152582024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>10</v>
       </c>
@@ -1504,12 +1516,14 @@
       <c r="E49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="11">
+        <v>8217.0791330268348</v>
+      </c>
       <c r="H49" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>10</v>
       </c>
@@ -1522,12 +1536,14 @@
       <c r="E50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="11">
+        <v>-3652.0351702341486</v>
+      </c>
       <c r="H50" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -1540,12 +1556,14 @@
       <c r="E51" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="11">
+        <v>-8217.0791330268348</v>
+      </c>
       <c r="H51" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>10</v>
       </c>
@@ -1558,20 +1576,22 @@
       <c r="E52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
       <c r="H52" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
@@ -1583,7 +1603,7 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
         <v>35</v>
       </c>
@@ -1598,7 +1618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C59" s="2" t="s">
         <v>39</v>
       </c>
@@ -1607,7 +1627,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C60" s="2" t="s">
         <v>40</v>
       </c>
@@ -1622,7 +1642,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1631,7 +1651,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>3</v>
       </c>
@@ -1644,14 +1664,20 @@
       <c r="E62" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="F62" s="11">
+        <v>132552.93179480504</v>
+      </c>
+      <c r="G62" s="11">
+        <v>69764.700944634242</v>
+      </c>
+      <c r="H62" s="11">
+        <v>205805.86778667098</v>
+      </c>
       <c r="J62" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>3</v>
       </c>
@@ -1664,14 +1690,20 @@
       <c r="E63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="F63" s="11">
+        <v>79531.759076883027</v>
+      </c>
+      <c r="G63" s="11">
+        <v>41858.820566780545</v>
+      </c>
+      <c r="H63" s="11">
+        <v>123483.52067200259</v>
+      </c>
       <c r="J63" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>3</v>
       </c>
@@ -1684,14 +1716,20 @@
       <c r="E64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="F64" s="11">
+        <v>26510.586358961009</v>
+      </c>
+      <c r="G64" s="11">
+        <v>13952.940188926852</v>
+      </c>
+      <c r="H64" s="11">
+        <v>41161.173557334201</v>
+      </c>
       <c r="J64" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>3</v>
       </c>
@@ -1704,14 +1742,20 @@
       <c r="E65" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
+      <c r="F65" s="11">
+        <v>-106042.34543584404</v>
+      </c>
+      <c r="G65" s="11">
+        <v>-55811.760755707393</v>
+      </c>
+      <c r="H65" s="11">
+        <v>-164644.69422933678</v>
+      </c>
       <c r="J65" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -1724,14 +1768,20 @@
       <c r="E66" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="F66" s="11">
+        <v>-53021.172717922018</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-27905.8803778537</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-82322.347114668388</v>
+      </c>
       <c r="J66" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>3</v>
       </c>
@@ -1744,14 +1794,20 @@
       <c r="E67" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
       <c r="J67" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>3</v>
       </c>
@@ -1764,14 +1820,20 @@
       <c r="E68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="F68" s="11">
+        <v>29456.207065512233</v>
+      </c>
+      <c r="G68" s="11">
+        <v>15503.266876585387</v>
+      </c>
+      <c r="H68" s="11">
+        <v>45734.637285926881</v>
+      </c>
       <c r="J68" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -1784,14 +1846,20 @@
       <c r="E69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="F69" s="11">
+        <v>-39629.273571215796</v>
+      </c>
+      <c r="G69" s="11">
+        <v>-20857.51240590305</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-61529.661597413986</v>
+      </c>
       <c r="J69" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>3</v>
       </c>
@@ -1804,14 +1872,20 @@
       <c r="E70" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="F70" s="11">
+        <v>39629.273571215796</v>
+      </c>
+      <c r="G70" s="11">
+        <v>20857.51240590305</v>
+      </c>
+      <c r="H70" s="11">
+        <v>61529.661597413986</v>
+      </c>
       <c r="J70" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -1824,14 +1898,20 @@
       <c r="E71" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="F71" s="11">
+        <v>-39629.273571215796</v>
+      </c>
+      <c r="G71" s="11">
+        <v>-20857.51240590305</v>
+      </c>
+      <c r="H71" s="11">
+        <v>-61529.661597413986</v>
+      </c>
       <c r="J71" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>3</v>
       </c>
@@ -1844,14 +1924,20 @@
       <c r="E72" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="F72" s="11">
+        <v>39629.273571215796</v>
+      </c>
+      <c r="G72" s="11">
+        <v>20857.51240590305</v>
+      </c>
+      <c r="H72" s="11">
+        <v>61529.661597413986</v>
+      </c>
       <c r="J72" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>3</v>
       </c>
@@ -1864,14 +1950,20 @@
       <c r="E73" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="F73" s="11">
+        <v>-39629.273571215796</v>
+      </c>
+      <c r="G73" s="11">
+        <v>-20857.51240590305</v>
+      </c>
+      <c r="H73" s="11">
+        <v>-61529.661597413986</v>
+      </c>
       <c r="J73" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>3</v>
       </c>
@@ -1884,14 +1976,20 @@
       <c r="E74" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+      <c r="F74" s="11">
+        <v>29456.207065512233</v>
+      </c>
+      <c r="G74" s="11">
+        <v>15503.266876585387</v>
+      </c>
+      <c r="H74" s="11">
+        <v>45734.637285926881</v>
+      </c>
       <c r="J74" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +2000,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C76" s="2" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +2015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C77" s="2" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +2024,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
@@ -1941,7 +2039,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
         <v>41</v>
       </c>
@@ -1950,7 +2048,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>10</v>
       </c>
@@ -1963,11 +2061,17 @@
       <c r="E80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="11">
+        <v>132552.93179480504</v>
+      </c>
+      <c r="G80" s="11">
+        <v>69764.700944634242</v>
+      </c>
+      <c r="H80" s="11">
+        <v>205805.86778667098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>10</v>
       </c>
@@ -1980,14 +2084,20 @@
       <c r="E81" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+      <c r="F81" s="11">
+        <v>-29456.207065512233</v>
+      </c>
+      <c r="G81" s="11">
+        <v>-15503.266876585387</v>
+      </c>
+      <c r="H81" s="11">
+        <v>-45734.637285926881</v>
+      </c>
       <c r="J81" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>10</v>
       </c>
@@ -2000,11 +2110,17 @@
       <c r="E82" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82" s="11">
+        <v>-132552.93179480504</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-69764.700944634242</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-205805.86778667098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>10</v>
       </c>
@@ -2017,14 +2133,20 @@
       <c r="E83" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
       <c r="J83" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
@@ -2035,7 +2157,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>35</v>
       </c>
@@ -2050,7 +2172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
         <v>39</v>
       </c>
@@ -2059,7 +2181,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
         <v>40</v>
       </c>
@@ -2074,7 +2196,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2205,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>5</v>
       </c>
@@ -2096,11 +2218,17 @@
       <c r="E98" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98" s="11">
+        <v>-57.399460780100206</v>
+      </c>
+      <c r="G98" s="11">
+        <v>-30.210242515842218</v>
+      </c>
+      <c r="H98" s="11">
+        <v>-89.120215421734528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>5</v>
       </c>
@@ -2113,11 +2241,17 @@
       <c r="E99" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F99" s="11">
+        <v>71.187300000000022</v>
+      </c>
+      <c r="G99" s="11">
+        <v>37.467000000000006</v>
+      </c>
+      <c r="H99" s="11">
+        <v>110.52764999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>5</v>
       </c>
@@ -2130,11 +2264,17 @@
       <c r="E100" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F100" s="11">
+        <v>-95.243586078853639</v>
+      </c>
+      <c r="G100" s="11">
+        <v>-50.128203199396665</v>
+      </c>
+      <c r="H100" s="11">
+        <v>-147.87819943822009</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>5</v>
       </c>
@@ -2147,11 +2287,17 @@
       <c r="E101" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F101" s="11">
+        <v>-71.187300000000022</v>
+      </c>
+      <c r="G101" s="11">
+        <v>-37.467000000000006</v>
+      </c>
+      <c r="H101" s="11">
+        <v>-110.52764999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
@@ -2162,7 +2308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>5</v>
       </c>
@@ -2172,9 +2318,11 @@
       <c r="E112" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F112" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>5</v>
       </c>
@@ -2184,9 +2332,11 @@
       <c r="E113" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F113" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>5</v>
       </c>
@@ -2196,9 +2346,11 @@
       <c r="E114" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F114" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>5</v>
       </c>
@@ -2208,9 +2360,11 @@
       <c r="E115" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F115" s="11"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F115" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C118" s="2" t="s">
         <v>35</v>
       </c>
@@ -2236,7 +2390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C119" s="2" t="s">
         <v>39</v>
       </c>
@@ -2245,7 +2399,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C120" s="2" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2414,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C121" s="2" t="s">
         <v>41</v>
       </c>
@@ -2269,7 +2423,7 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>10</v>
       </c>
@@ -2282,11 +2436,17 @@
       <c r="E122" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F122" s="11">
+        <v>-86.099191170150306</v>
+      </c>
+      <c r="G122" s="11">
+        <v>-45.31536377376333</v>
+      </c>
+      <c r="H122" s="11">
+        <v>-133.68032313260179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>10</v>
       </c>
@@ -2299,11 +2459,17 @@
       <c r="E123" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F123" s="11">
+        <v>85.42476000000002</v>
+      </c>
+      <c r="G123" s="11">
+        <v>44.960400000000007</v>
+      </c>
+      <c r="H123" s="11">
+        <v>132.63318000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>10</v>
       </c>
@@ -2316,11 +2482,17 @@
       <c r="E124" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F124" s="11">
+        <v>-142.86537911828046</v>
+      </c>
+      <c r="G124" s="11">
+        <v>-75.192304799094984</v>
+      </c>
+      <c r="H124" s="11">
+        <v>-221.81729915733013</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>10</v>
       </c>
@@ -2333,11 +2505,17 @@
       <c r="E125" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F125" s="11">
+        <v>-85.42476000000002</v>
+      </c>
+      <c r="G125" s="11">
+        <v>-44.960400000000007</v>
+      </c>
+      <c r="H125" s="11">
+        <v>-132.63318000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
@@ -2348,7 +2526,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>50</v>
       </c>
@@ -2361,12 +2539,14 @@
       <c r="E136" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F136" s="11"/>
+      <c r="F136" s="11">
+        <v>2224.5318870626102</v>
+      </c>
       <c r="H136" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>50</v>
       </c>
@@ -2379,9 +2559,11 @@
       <c r="E137" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F137" s="11"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F137" s="11">
+        <v>34.620189524667069</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>50</v>
       </c>
@@ -2394,9 +2576,11 @@
       <c r="E138" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F138" s="11"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F138" s="11">
+        <v>34.174080372133787</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2413,7 +2597,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2430,7 +2614,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2447,7 +2631,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2464,7 +2648,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2481,7 +2665,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2498,7 +2682,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2515,7 +2699,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2532,7 +2716,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2549,7 +2733,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2566,7 +2750,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2583,7 +2767,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2600,7 +2784,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2617,7 +2801,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2634,7 +2818,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2651,7 +2835,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2668,7 +2852,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2685,7 +2869,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
